--- a/excel/配置文件.xlsx
+++ b/excel/配置文件.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcan/git_pro/excel-to-json/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125A5A24-C74B-B34C-BBF1-3744FC46870C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D95A77-BE80-4E42-9CF7-094D66518C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="3" r:id="rId1"/>
+    <sheet name="config2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,99 @@
   </si>
   <si>
     <t>myDesc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子标题</t>
+  </si>
+  <si>
+    <t>子标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonTitle</t>
+  </si>
+  <si>
+    <t>sonTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mySonTitle</t>
+  </si>
+  <si>
+    <t>mySonTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myTitle2</t>
+  </si>
+  <si>
+    <t>mySonTitle2</t>
+  </si>
+  <si>
+    <t>mySonTitle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mySonTitle3</t>
+  </si>
+  <si>
+    <t>mySonTitle3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>myTitle</t>
+  </si>
+  <si>
+    <t>myDesc</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>myDesc2</t>
+  </si>
+  <si>
+    <t>myTitle3</t>
+  </si>
+  <si>
+    <t>myDesc3</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>固定键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixedKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +213,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -218,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -472,187 +577,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD9400-9055-384B-A462-748FD25B38DB}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/配置文件.xlsx
+++ b/excel/配置文件.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingcan/git_pro/excel-to-json/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D95A77-BE80-4E42-9CF7-094D66518C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E708020-8F35-0D45-A70A-7555C1332CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="3" r:id="rId1"/>
-    <sheet name="config2" sheetId="4" r:id="rId2"/>
+    <sheet name="表格一" sheetId="3" r:id="rId1"/>
+    <sheet name="表格二" sheetId="5" r:id="rId2"/>
+    <sheet name="表格三" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +176,18 @@
   <si>
     <t>data2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定键</t>
+  </si>
+  <si>
+    <t>fixedKey</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data2</t>
   </si>
 </sst>
 </file>
@@ -244,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +275,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -590,7 +606,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -603,8 +619,11 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,8 +636,11 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -631,8 +653,11 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -645,8 +670,11 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -659,68 +687,71 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -800,11 +831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD9400-9055-384B-A462-748FD25B38DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A207C-5076-A842-8DAD-16A4028FB98C}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD35"/>
+      <selection activeCell="E20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -823,7 +854,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -840,7 +871,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -857,7 +888,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -874,7 +905,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -891,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -899,132 +930,409 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C1DC9F-17BC-1A45-913D-1CD8B754F839}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
